--- a/data/IME.xlsx
+++ b/data/IME.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -481,6 +556,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -503,7 +593,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F, W, SPRecommended: IME 140 or ME 129.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>IME 140 or ME 129.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>F, W, SP</t>
         </is>
       </c>
     </row>
@@ -525,7 +630,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WConcurrent: ME 129.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ME 129.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
     </row>
@@ -542,12 +662,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IME 145. Concurrent: ME 130.</t>
+          <t>IME 145.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ME 130.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CSC 232.</t>
+          <t>CSC 232.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -630,12 +810,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MATH 141. Recommended: IME 101.</t>
+          <t>MATH 141.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>IME 101.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IME 223.</t>
+          <t>IME 223.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MATH 244.</t>
+          <t>MATH 244.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Junior standing, IME 314 or equivalent.</t>
+          <t>Junior standing, IME 314 or equivalent.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -767,7 +1037,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F, W, SPCorequisite: IME 301 or STAT 321.</t>
+          <t>IME 301 or STAT 321.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>F, W, SP</t>
         </is>
       </c>
     </row>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CSC 232.</t>
+          <t>CSC 232.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MATH 241.</t>
+          <t>MATH 241.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATH 142.</t>
+          <t>MATH 142.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -850,10 +1180,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PSY 201 or PSY 202, and junior standing.</t>
+          <t>PSY 201 or PSY 202, and junior standing.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>STAT 321 with a grade of C- or better.</t>
+          <t>STAT 321 with a grade of C- or better.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>STAT 321 with a grade of C- or better or consent of instructor; or ME 236.</t>
+          <t>STAT 321 with a grade of C- or better or consent of instructor; or ME 236.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IME 141 or ITP 341; IME 142; CE 204 or CE 208; MATE 210; MATE 215; IME 144, or IME 143 and ME 251.</t>
+          <t>IME 141 or ITP 341; IME 142; CE 204 or CE 208; MATE 210; MATE 215; IME 144, or IME 143 and ME 251.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -982,10 +1402,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MATH 244; IME 144 or IME 143 and ME 251; and CSC 101, CSC 231, CSC 232 or CSC 234.</t>
+          <t>MATH 244; IME 144 or IME 143 and ME 251; and CSC 101, CSC 231, CSC 232 or CSC 234.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IME 335, ME 212, MATH 244, or consent of instructor.</t>
+          <t>IME 335, ME 212, MATH 244, or consent of instructor.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1026,12 +1476,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MATH 241 and IME 223. Recommended: STAT 321.</t>
+          <t>MATH 241 and IME 223.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>STAT 321.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EE 321.</t>
+          <t>EE 321.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IME 212, IME 312, IME 326, MATH 244.</t>
+          <t>IME 212, IME 312, IME 326, MATH 244.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1097,6 +1592,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1119,6 +1629,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>F, SP</t>
         </is>
       </c>
@@ -1136,10 +1661,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CSC 232.</t>
+          <t>CSC 232.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IME 239, IME 314, and IME 305.</t>
+          <t>IME 239, IME 314, and IME 305.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IME 342 or IME 305.</t>
+          <t>IME 342 or IME 305.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1202,10 +1772,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IME 356, ME 305 or equivalent.</t>
+          <t>IME 356, ME 305 or equivalent.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1224,10 +1809,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IME 342 or IME 410.</t>
+          <t>IME 342 or IME 410.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1246,12 +1846,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Senior standing in engineering or graduate standing. Recommended: IME 450.</t>
+          <t>Senior standing in engineering or graduate standing.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>IME 450.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IME 305; IME 326 or IME 327; or graduate standing.</t>
+          <t>IME 305; IME 326 or IME 327; or graduate standing.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1290,12 +1920,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KINE 250, PSY 201, or PSY 202; junior standing. Recommended: IME 314.</t>
+          <t>KINE 250, PSY 201, or PSY 202; junior standing.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>IME 314.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IME 223.</t>
+          <t>IME 223.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IME 143 or IME 144; and IME 326, IME 327, IME 503 or STAT 312.</t>
+          <t>IME 143 or IME 144; and IME 326, IME 327, IME 503 or STAT 312.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IME 319; and IME 326 or IME 327.</t>
+          <t>IME 319; and IME 326 or IME 327.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>IME 326, IME 327, IME 503, STAT 302 or STAT 312.</t>
+          <t>IME 326, IME 327, IME 503, STAT 302 or STAT 312.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -1400,12 +2105,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IME 144 or ME 251; and MATE 210. Recommended: IME 330.</t>
+          <t>IME 144 or ME 251; and MATE 210.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>IME 330.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>IME 326, IME 327, IME 503 or STAT 312.</t>
+          <t>IME 326, IME 327, IME 503 or STAT 312.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1449,6 +2184,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1471,6 +2221,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1488,12 +2253,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>IME 144; IME 223; IME 314; and either IME 305 or IME 342. Recommended: IME 319 and IME 420.</t>
+          <t>IME 144; IME 223; IME 314; and either IME 305 or IME 342.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>IME 319 and IME 420.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -1510,12 +2290,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MATH 244, IME 330. Recommended: IME 335.</t>
+          <t>MATH 244, IME 330.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>IME 335.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EE 201 or IME 156 or ITP 150.</t>
+          <t>EE 201 or IME 156 or ITP 150.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1554,10 +2364,25 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>IME 156 or EE 143 or EE 201.</t>
+          <t>IME 156 or EE 143 or EE 201.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1576,12 +2401,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EE 112 or EE 113 or EE 201. Recommended: MATE 210.</t>
+          <t>EE 112 or EE 113 or EE 201.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MATE 210.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1598,10 +2438,25 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>IME 223 or ITP 303; and senior standing.</t>
+          <t>IME 223 or ITP 303; and senior standing.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1625,6 +2480,21 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1647,6 +2517,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1669,6 +2554,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -1686,10 +2586,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>IME 481.</t>
+          <t>IME 481.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -1708,10 +2623,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>IME 482.</t>
+          <t>IME 482.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>F, SP</t>
         </is>
@@ -1735,6 +2665,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1757,6 +2702,21 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1779,6 +2739,21 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1801,6 +2776,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -1823,6 +2813,21 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IME 510, graduate standing or consent of instructor.</t>
+          <t>IME 510, graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1862,12 +2882,27 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Graduate standing or consent of instructor. Recommended: IME 410.</t>
+          <t>Graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>IME 410.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1884,10 +2919,25 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>IME 326 or IME 327 or IME 503 or STAT 312.</t>
+          <t>IME 326 or IME 327 or IME 503 or STAT 312.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1911,6 +2961,21 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -1928,12 +2993,27 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Graduate standing. Recommended: IME 326 or IME 327 or IME 503 or STAT 312.</t>
+          <t>Graduate standing.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>IME 326 or IME 327 or IME 503 or STAT 312.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -1950,12 +3030,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Graduate standing or consent of instructor. Recommended: IME 326 or IME 327 or IME 503.</t>
+          <t>Graduate standing or consent of instructor.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>IME 326 or IME 327 or IME 503.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1972,12 +3067,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Graduate standing. Recommended: Undergraduate course in engineering economy.</t>
+          <t>Graduate standing.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Undergraduate course in engineering economy.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1994,12 +3104,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Graduate standing. Recommended: IME 420.</t>
+          <t>Graduate standing.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>IME 420.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -2021,6 +3146,21 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2043,6 +3183,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2065,6 +3220,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -2087,6 +3257,21 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2109,6 +3294,21 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -2131,6 +3331,21 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -2152,6 +3367,21 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
